--- a/data/case1/15/Ploss_3.xlsx
+++ b/data/case1/15/Ploss_3.xlsx
@@ -61,7 +61,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.021881251481572495</v>
+        <v>0.02474988174319126</v>
       </c>
     </row>
   </sheetData>
